--- a/Results/Results - Methods of Ananlysis.xlsx
+++ b/Results/Results - Methods of Ananlysis.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Codefiles\COVID19Analysis\Code\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Codefiles\COVID19Analysis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6A8279-FE57-474D-A2E8-E78DA51EE244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0BFB24-0E9B-4496-B6C1-C2778EC01C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11124" yWindow="1692" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -79,9 +79,6 @@
     <t>1,3-13</t>
   </si>
   <si>
-    <t>Overfitted</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>1,2,4,5</t>
-  </si>
-  <si>
-    <t>Underfitted</t>
   </si>
   <si>
     <t>0,0,10</t>
@@ -131,6 +125,33 @@
   </si>
   <si>
     <t>1-4,1-3</t>
+  </si>
+  <si>
+    <t>(15,0,0)</t>
+  </si>
+  <si>
+    <t>(0,0,5)</t>
+  </si>
+  <si>
+    <t>(0,0,10)</t>
+  </si>
+  <si>
+    <t>(5,0,5)</t>
+  </si>
+  <si>
+    <t>(3,0,3)</t>
+  </si>
+  <si>
+    <t>(1,0,3)</t>
+  </si>
+  <si>
+    <t>(2,0,3)</t>
+  </si>
+  <si>
+    <t>(5,0,3)</t>
+  </si>
+  <si>
+    <t>Average MAE</t>
   </si>
 </sst>
 </file>
@@ -181,10 +202,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,20 +226,3721 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$2:$C$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(5,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>(8,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>(10,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>(15,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>(0,0,5)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(0,0,10)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>(1,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>(2,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>(3,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(5,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>(5,0,5)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ARIMA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9671.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9650.8700000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9853.7139999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9771.6679999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9821.1299999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9874.9599999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9827.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9851.1200000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9677.8799999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7837-4072-83CB-8F6F3A2C13E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="418366776"/>
+        <c:axId val="418363168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="418366776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418363168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418363168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418366776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$2:$C$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(5,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>(8,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>(10,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>(15,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>(0,0,5)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(0,0,10)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>(1,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>(2,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>(3,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(5,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>(5,0,5)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ARIMA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3156.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2099.0100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-168.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-925.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2853.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2826.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-156.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3126.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2581</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2258.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4096-49EC-A2C3-99C6B628DD70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="542630136"/>
+        <c:axId val="542626200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="542630136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542626200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542626200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542630136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$2:$C$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(5,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>(8,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>(10,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>(15,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>(0,0,5)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(0,0,10)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>(1,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>(2,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>(3,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(5,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>(5,0,5)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ARIMA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7559.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5886.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7325.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8989.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7376.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7173.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6753.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7736.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7293.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7073.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0697-471B-9450-C95F5BC21874}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="542637352"/>
+        <c:axId val="542643584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="542637352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542643584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542643584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542637352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$2:$C$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(5,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>(8,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>(10,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>(15,0,0)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>(0,0,5)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(0,0,10)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>(1,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>(2,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>(3,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(5,0,3)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>(5,0,5)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ARIMA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12248.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10571.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11254.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13096.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11994.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11803.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11402.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12456.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11443.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11464.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BD5-4B7B-9EDB-CBCAACA2777A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539950904"/>
+        <c:axId val="539954840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539950904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539954840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539954840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539950904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3088561-9867-4955-B519-F57F28A28A31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E54FFC-A1D4-449F-8AF6-2F108F5AF5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853B6896-C2EE-4931-AC6E-100D23ABF441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DD893-5A4C-4B42-90AE-D221C2395C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>425969</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>64000</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83069</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -238,7 +3963,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="320040"/>
+          <a:off x="8229600" y="1722120"/>
           <a:ext cx="3435869" cy="2852920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -514,22 +4239,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -540,318 +4263,604 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>9902</v>
       </c>
       <c r="E2" s="2">
-        <v>9902</v>
+        <v>-3156.04</v>
       </c>
       <c r="F2" s="2">
-        <v>-3156.04</v>
+        <v>7559.59</v>
       </c>
       <c r="G2" s="2">
-        <v>7559.59</v>
+        <v>12248.69</v>
       </c>
       <c r="H2" s="2">
-        <v>150030485.62799999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>12248.69</v>
+        <f>AVERAGE(F2:F5)</f>
+        <v>7440.2525000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
+      <c r="D3" s="2">
+        <v>9671.91</v>
       </c>
       <c r="E3" s="2">
-        <v>9671.91</v>
+        <v>2099.0100000000002</v>
       </c>
       <c r="F3" s="2">
-        <v>2099.0100000000002</v>
+        <v>5886.45</v>
       </c>
       <c r="G3" s="2">
-        <v>5886.45</v>
-      </c>
-      <c r="H3" s="2">
-        <v>111746743.68000001</v>
-      </c>
-      <c r="I3" s="2">
         <v>10571.03</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
+      <c r="D4" s="2">
+        <v>9650.8700000000008</v>
       </c>
       <c r="E4" s="2">
-        <v>9650.8700000000008</v>
+        <v>-168.84</v>
       </c>
       <c r="F4" s="2">
-        <v>-168.84</v>
+        <v>7325.04</v>
       </c>
       <c r="G4" s="2">
-        <v>7325.04</v>
-      </c>
-      <c r="H4" s="2">
-        <v>126671810.42</v>
-      </c>
-      <c r="I4" s="2">
         <v>11254.85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9604</v>
       </c>
       <c r="E5" s="2">
-        <v>9604</v>
+        <v>-925.34</v>
       </c>
       <c r="F5" s="2">
-        <v>-925.34</v>
+        <v>8989.93</v>
       </c>
       <c r="G5" s="2">
-        <v>8989.93</v>
-      </c>
-      <c r="H5" s="2">
-        <v>171528281.94999999</v>
-      </c>
-      <c r="I5" s="2">
         <v>13096.88</v>
       </c>
-      <c r="J5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9853.7139999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-2853.86</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7376.7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>11994.65</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(F6:F7)</f>
+        <v>7274.9249999999993</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9853.7139999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-2853.86</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7376.7</v>
-      </c>
-      <c r="H6" s="2">
-        <v>143871735.36000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>11994.65</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9771.6679999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-2826.29</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7173.15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11803.74</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9771.6679999999997</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-2826.29</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7173.15</v>
-      </c>
-      <c r="H7" s="2">
-        <v>139328387.56999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>11803.74</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9821.1299999999992</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-156.96</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6753.38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11402.19</v>
+      </c>
+      <c r="H8" s="2">
+        <f>AVERAGE(F8:F12)</f>
+        <v>7396.0919999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9874.9599999999991</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-3126.36</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7736.76</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12456.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9827.43</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-2581</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7293.83</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9851.1200000000008</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-2258.7199999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7073.49</v>
+      </c>
+      <c r="G11" s="2">
+        <v>11443.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2">
         <v>9677.8799999999992</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E12" s="2">
         <v>73.17</v>
       </c>
-      <c r="G8" s="2">
+      <c r="F12" s="2">
         <v>8123</v>
       </c>
-      <c r="H8" s="2">
-        <v>131438974.8</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="G12" s="2">
         <v>11464.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9827.43</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-2581</v>
-      </c>
-      <c r="G9" s="2">
-        <v>7293.83</v>
-      </c>
-      <c r="H9" s="2">
-        <v>125417667.09999999</v>
-      </c>
-      <c r="I9" s="2">
-        <v>11199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9821.1299999999992</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-156.96</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6753.38</v>
-      </c>
-      <c r="H10" s="2">
-        <v>130010114.92</v>
-      </c>
-      <c r="I10" s="2">
-        <v>11402.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2">
-        <v>9874.9599999999991</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-3126.36</v>
-      </c>
-      <c r="G11" s="2">
-        <v>7736.76</v>
-      </c>
-      <c r="H11" s="2">
-        <v>155158393.28</v>
-      </c>
-      <c r="I11" s="2">
-        <v>12456.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9851.1200000000008</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-2258.7199999999998</v>
-      </c>
-      <c r="G12" s="2">
-        <v>7073.49</v>
-      </c>
-      <c r="H12" s="2">
-        <v>130954552.61</v>
-      </c>
-      <c r="I12" s="2">
-        <v>11443.53</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01C3CE6-393F-457F-8872-76FD97BAA540}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9902</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-3156.04</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7559.59</v>
+      </c>
+      <c r="H2" s="2">
+        <v>150030485.62799999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>12248.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9671.91</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2099.0100000000002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5886.45</v>
+      </c>
+      <c r="H3" s="2">
+        <v>111746743.68000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10571.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9650.8700000000008</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-168.84</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7325.04</v>
+      </c>
+      <c r="H4" s="2">
+        <v>126671810.42</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11254.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9604</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-925.34</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8989.93</v>
+      </c>
+      <c r="H5" s="2">
+        <v>171528281.94999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>13096.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9853.7139999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-2853.86</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7376.7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>143871735.36000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11994.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9771.6679999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-2826.29</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7173.15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>139328387.56999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>11803.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9677.8799999999992</v>
+      </c>
+      <c r="F8" s="2">
+        <v>73.17</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8123</v>
+      </c>
+      <c r="H8" s="2">
+        <v>131438974.8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>11464.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9827.43</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-2581</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7293.83</v>
+      </c>
+      <c r="H9" s="2">
+        <v>125417667.09999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9821.1299999999992</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-156.96</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6753.38</v>
+      </c>
+      <c r="H10" s="2">
+        <v>130010114.92</v>
+      </c>
+      <c r="I10" s="2">
+        <v>11402.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9874.9599999999991</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-3126.36</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7736.76</v>
+      </c>
+      <c r="H11" s="2">
+        <v>155158393.28</v>
+      </c>
+      <c r="I11" s="2">
+        <v>12456.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9851.1200000000008</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-2258.7199999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7073.49</v>
+      </c>
+      <c r="H12" s="2">
+        <v>130954552.61</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11443.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
